--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>894123.4148088144</v>
+        <v>891100.8288320898</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673445</v>
+        <v>603248.4937673446</v>
       </c>
     </row>
     <row r="9">
@@ -668,61 +668,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.79717485420766</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.808007761517025</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.097100052852174</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="V3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.89427490705984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>33.93991247395533</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,61 +905,61 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33.89412103271894</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11.85612676368803</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="S5" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>38.48106384277808</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D7" t="n">
-        <v>18.96187038700693</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>233.1896216146434</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>233.1896216146423</v>
       </c>
       <c r="G8" t="n">
-        <v>233.1896216146434</v>
+        <v>233.1896216146423</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>45.68759568280892</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.92897356806907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.7058230353676</v>
+        <v>159.7058230353678</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>24.88257637302984</v>
+        <v>233.1896216146423</v>
       </c>
       <c r="W8" t="n">
-        <v>233.1896216146434</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>42.6306483919035</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.0526519233379</v>
       </c>
       <c r="I9" t="n">
-        <v>49.53063845618553</v>
+        <v>49.53063845618574</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.26700400501682</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1753769757154</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>66.40298440317721</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.5964365630632</v>
       </c>
       <c r="I10" t="n">
-        <v>126.2577607104922</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.72806208046057</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.876042450414886</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.6455181860797</v>
+        <v>73.88191664326638</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>233.1896216146434</v>
+        <v>233.1896216146423</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>308.3140811037679</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>267.8446290432869</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184569</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615222</v>
+        <v>98.88510599615218</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530798</v>
+        <v>10.48847705530795</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>42.37033989662596</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>67.26346159903299</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>54.32649042089736</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>171.9125838784778</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H19" t="n">
-        <v>3.00689298783406</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>56.10180801516488</v>
       </c>
       <c r="H22" t="n">
-        <v>75.75905456204119</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>65.56423921895151</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>46.15319674220952</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>100.58583229927</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.29550035394075</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>28.42659968729198</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.0890000505814</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.7205611007755</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>167.8921037048598</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.29550035394148</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.98993057842257</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114.5120075176662</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4312223122537</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="C2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="D2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="E2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="F2" t="n">
-        <v>41.13641777246947</v>
+        <v>18.0790530017865</v>
       </c>
       <c r="G2" t="n">
-        <v>6.853677899787311</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H2" t="n">
-        <v>6.853677899787311</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I2" t="n">
-        <v>6.853677899787311</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J2" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="M2" t="n">
+        <v>34.95810984817397</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.55862319738975</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>102.1591365466055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4352,28 +4352,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R2" t="n">
-        <v>101.4769100231392</v>
+        <v>127.8727733690365</v>
       </c>
       <c r="S2" t="n">
-        <v>67.19417015045701</v>
+        <v>127.8727733690365</v>
       </c>
       <c r="T2" t="n">
-        <v>67.19417015045701</v>
+        <v>127.8727733690365</v>
       </c>
       <c r="U2" t="n">
-        <v>67.19417015045701</v>
+        <v>93.59003349635429</v>
       </c>
       <c r="V2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367213</v>
       </c>
       <c r="W2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367213</v>
       </c>
       <c r="X2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.19417015045701</v>
+        <v>25.02455375098997</v>
       </c>
     </row>
     <row r="3">
@@ -4389,7 +4389,7 @@
         <v>71.28067274328075</v>
       </c>
       <c r="D3" t="n">
-        <v>71.28067274328075</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="E3" t="n">
         <v>36.99793287059858</v>
@@ -4401,7 +4401,7 @@
         <v>36.99793287059858</v>
       </c>
       <c r="H3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
@@ -4410,19 +4410,19 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L3" t="n">
-        <v>36.31570634713221</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M3" t="n">
-        <v>69.91621969634798</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="N3" t="n">
-        <v>69.91621969634798</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="O3" t="n">
-        <v>103.5167330455638</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P3" t="n">
         <v>135.7596498958213</v>
@@ -4440,19 +4440,19 @@
         <v>135.7596498958213</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="W3" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="X3" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.28067274328075</v>
+        <v>105.5634126159629</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.62217480869573</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="C4" t="n">
-        <v>54.62217480869573</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="D4" t="n">
-        <v>54.62217480869573</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="E4" t="n">
-        <v>54.62217480869573</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="F4" t="n">
-        <v>20.33943493601357</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="G4" t="n">
-        <v>20.33943493601357</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="H4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4507,31 +4507,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="R4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="U4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.90491468137789</v>
+        <v>135.7596498958213</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640914</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="D5" t="n">
-        <v>76.18473245640914</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="E5" t="n">
-        <v>76.18473245640914</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="F5" t="n">
-        <v>41.94824656477385</v>
+        <v>18.39358462996717</v>
       </c>
       <c r="G5" t="n">
         <v>3.078485107422247</v>
@@ -4571,46 +4571,46 @@
         <v>3.078485107422247</v>
       </c>
       <c r="L5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M5" t="n">
-        <v>34.47469744057084</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="N5" t="n">
-        <v>72.57095064492114</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="O5" t="n">
-        <v>110.6672038492714</v>
+        <v>117.3672447204732</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R5" t="n">
-        <v>115.0544939137607</v>
+        <v>141.9483697512254</v>
       </c>
       <c r="S5" t="n">
-        <v>76.18473245640914</v>
+        <v>141.9483697512254</v>
       </c>
       <c r="T5" t="n">
-        <v>76.18473245640914</v>
+        <v>141.9483697512254</v>
       </c>
       <c r="U5" t="n">
-        <v>76.18473245640914</v>
+        <v>141.9483697512254</v>
       </c>
       <c r="V5" t="n">
-        <v>76.18473245640914</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="W5" t="n">
-        <v>76.18473245640914</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="X5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>41.17473831177255</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="M6" t="n">
-        <v>41.17473831177255</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N6" t="n">
-        <v>79.27099151612285</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O6" t="n">
-        <v>79.27099151612285</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="P6" t="n">
         <v>115.828002166762</v>
@@ -4671,22 +4671,22 @@
         <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>153.9242553711123</v>
+        <v>119.687769479477</v>
       </c>
       <c r="T6" t="n">
-        <v>153.9242553711123</v>
+        <v>119.687769479477</v>
       </c>
       <c r="U6" t="n">
-        <v>115.0544939137607</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="V6" t="n">
-        <v>76.18473245640914</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="W6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="X6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="Y6" t="n">
         <v>3.078485107422247</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.18473245640914</v>
+        <v>119.687769479477</v>
       </c>
       <c r="C7" t="n">
-        <v>37.31497099905754</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="D7" t="n">
-        <v>18.16156656773741</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="E7" t="n">
-        <v>18.16156656773741</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="F7" t="n">
-        <v>18.16156656773741</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G7" t="n">
-        <v>18.16156656773741</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K7" t="n">
         <v>3.078485107422247</v>
@@ -4744,31 +4744,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U7" t="n">
-        <v>115.0544939137607</v>
+        <v>119.687769479477</v>
       </c>
       <c r="V7" t="n">
-        <v>115.0544939137607</v>
+        <v>119.687769479477</v>
       </c>
       <c r="W7" t="n">
-        <v>115.0544939137607</v>
+        <v>119.687769479477</v>
       </c>
       <c r="X7" t="n">
-        <v>76.18473245640914</v>
+        <v>119.687769479477</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.18473245640914</v>
+        <v>119.687769479477</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>496.6908151544222</v>
+        <v>535.8944009535084</v>
       </c>
       <c r="C8" t="n">
-        <v>261.1457428163986</v>
+        <v>535.8944009535084</v>
       </c>
       <c r="D8" t="n">
-        <v>261.1457428163986</v>
+        <v>535.8944009535084</v>
       </c>
       <c r="E8" t="n">
-        <v>261.1457428163986</v>
+        <v>535.8944009535084</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2002420671951</v>
+        <v>300.3493286154858</v>
       </c>
       <c r="G8" t="n">
-        <v>18.65516972917147</v>
+        <v>64.80425627746322</v>
       </c>
       <c r="H8" t="n">
-        <v>18.65516972917147</v>
+        <v>64.80425627746322</v>
       </c>
       <c r="I8" t="n">
-        <v>18.65516972917147</v>
+        <v>18.65516972917138</v>
       </c>
       <c r="J8" t="n">
-        <v>188.6632309912245</v>
+        <v>188.6632309912235</v>
       </c>
       <c r="K8" t="n">
-        <v>243.3020905817295</v>
+        <v>243.302090581727</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9881892601526</v>
+        <v>347.9881892601483</v>
       </c>
       <c r="M8" t="n">
-        <v>496.1410823357523</v>
+        <v>496.1410823357461</v>
       </c>
       <c r="N8" t="n">
-        <v>651.3050524892293</v>
+        <v>651.305052489221</v>
       </c>
       <c r="O8" t="n">
-        <v>784.4867283255317</v>
+        <v>784.4867283255214</v>
       </c>
       <c r="P8" t="n">
-        <v>863.6532065258912</v>
+        <v>921.4805048956517</v>
       </c>
       <c r="Q8" t="n">
-        <v>932.7584864585735</v>
+        <v>932.7584864585692</v>
       </c>
       <c r="R8" t="n">
-        <v>918.6888161877968</v>
+        <v>932.7584864585692</v>
       </c>
       <c r="S8" t="n">
-        <v>757.3698030207588</v>
+        <v>771.4394732915309</v>
       </c>
       <c r="T8" t="n">
-        <v>757.3698030207588</v>
+        <v>771.4394732915309</v>
       </c>
       <c r="U8" t="n">
-        <v>757.3698030207588</v>
+        <v>771.4394732915309</v>
       </c>
       <c r="V8" t="n">
-        <v>732.2358874924458</v>
+        <v>535.8944009535084</v>
       </c>
       <c r="W8" t="n">
-        <v>496.6908151544222</v>
+        <v>535.8944009535084</v>
       </c>
       <c r="X8" t="n">
-        <v>496.6908151544222</v>
+        <v>535.8944009535084</v>
       </c>
       <c r="Y8" t="n">
-        <v>496.6908151544222</v>
+        <v>535.8944009535084</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.68611766471241</v>
+        <v>653.3843973936957</v>
       </c>
       <c r="C9" t="n">
-        <v>68.68611766471241</v>
+        <v>478.9313681125687</v>
       </c>
       <c r="D9" t="n">
-        <v>68.68611766471241</v>
+        <v>329.9969584513174</v>
       </c>
       <c r="E9" t="n">
-        <v>68.68611766471241</v>
+        <v>170.7595034458619</v>
       </c>
       <c r="F9" t="n">
-        <v>68.68611766471241</v>
+        <v>170.7595034458619</v>
       </c>
       <c r="G9" t="n">
-        <v>68.68611766471241</v>
+        <v>170.7595034458619</v>
       </c>
       <c r="H9" t="n">
-        <v>68.68611766471241</v>
+        <v>68.68611766471254</v>
       </c>
       <c r="I9" t="n">
-        <v>18.65516972917147</v>
+        <v>18.65516972917138</v>
       </c>
       <c r="J9" t="n">
-        <v>18.65516972917147</v>
+        <v>126.2174266620307</v>
       </c>
       <c r="K9" t="n">
-        <v>67.29645756400507</v>
+        <v>174.8587144968633</v>
       </c>
       <c r="L9" t="n">
-        <v>179.0232129208443</v>
+        <v>286.5854698537013</v>
       </c>
       <c r="M9" t="n">
-        <v>328.7599347839425</v>
+        <v>436.322191716798</v>
       </c>
       <c r="N9" t="n">
-        <v>496.8683870349826</v>
+        <v>604.4306439678365</v>
       </c>
       <c r="O9" t="n">
-        <v>628.4349829940192</v>
+        <v>735.9972399268717</v>
       </c>
       <c r="P9" t="n">
-        <v>859.292708392516</v>
+        <v>822.2579660567102</v>
       </c>
       <c r="Q9" t="n">
-        <v>932.7584864585735</v>
+        <v>932.7584864585692</v>
       </c>
       <c r="R9" t="n">
-        <v>932.7584864585735</v>
+        <v>904.2059571605724</v>
       </c>
       <c r="S9" t="n">
-        <v>932.7584864585735</v>
+        <v>904.2059571605724</v>
       </c>
       <c r="T9" t="n">
-        <v>932.7584864585735</v>
+        <v>904.2059571605724</v>
       </c>
       <c r="U9" t="n">
-        <v>932.7584864585735</v>
+        <v>904.2059571605724</v>
       </c>
       <c r="V9" t="n">
-        <v>697.6063782268309</v>
+        <v>904.2059571605724</v>
       </c>
       <c r="W9" t="n">
-        <v>484.2979166351992</v>
+        <v>904.2059571605724</v>
       </c>
       <c r="X9" t="n">
-        <v>276.4464164296663</v>
+        <v>904.2059571605724</v>
       </c>
       <c r="Y9" t="n">
-        <v>68.68611766471241</v>
+        <v>696.4456583956185</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>557.2926458008585</v>
+        <v>173.8030854494372</v>
       </c>
       <c r="C10" t="n">
-        <v>388.3564628729516</v>
+        <v>173.8030854494372</v>
       </c>
       <c r="D10" t="n">
-        <v>238.2398234606159</v>
+        <v>173.8030854494372</v>
       </c>
       <c r="E10" t="n">
-        <v>171.166101841245</v>
+        <v>173.8030854494372</v>
       </c>
       <c r="F10" t="n">
-        <v>171.166101841245</v>
+        <v>173.8030854494372</v>
       </c>
       <c r="G10" t="n">
-        <v>171.166101841245</v>
+        <v>173.8030854494372</v>
       </c>
       <c r="H10" t="n">
-        <v>171.166101841245</v>
+        <v>18.65516972917138</v>
       </c>
       <c r="I10" t="n">
-        <v>43.63301021448518</v>
+        <v>18.65516972917138</v>
       </c>
       <c r="J10" t="n">
-        <v>18.65516972917147</v>
+        <v>18.65516972917138</v>
       </c>
       <c r="K10" t="n">
-        <v>108.2625623056369</v>
+        <v>108.2625623056364</v>
       </c>
       <c r="L10" t="n">
-        <v>278.4556086609869</v>
+        <v>278.4556086609855</v>
       </c>
       <c r="M10" t="n">
-        <v>468.2894363112806</v>
+        <v>468.2894363112785</v>
       </c>
       <c r="N10" t="n">
-        <v>659.044056261371</v>
+        <v>659.044056261368</v>
       </c>
       <c r="O10" t="n">
-        <v>819.220526800701</v>
+        <v>819.2205268006973</v>
       </c>
       <c r="P10" t="n">
-        <v>932.7584864585735</v>
+        <v>932.7584864585692</v>
       </c>
       <c r="Q10" t="n">
-        <v>927.8331910541141</v>
+        <v>932.7584864585692</v>
       </c>
       <c r="R10" t="n">
-        <v>792.8377181388821</v>
+        <v>858.1302878290072</v>
       </c>
       <c r="S10" t="n">
-        <v>792.8377181388821</v>
+        <v>858.1302878290072</v>
       </c>
       <c r="T10" t="n">
-        <v>792.8377181388821</v>
+        <v>858.1302878290072</v>
       </c>
       <c r="U10" t="n">
-        <v>792.8377181388821</v>
+        <v>858.1302878290072</v>
       </c>
       <c r="V10" t="n">
-        <v>557.2926458008585</v>
+        <v>622.5852154909846</v>
       </c>
       <c r="W10" t="n">
-        <v>557.2926458008585</v>
+        <v>622.5852154909846</v>
       </c>
       <c r="X10" t="n">
-        <v>557.2926458008585</v>
+        <v>394.5956645929673</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.2926458008585</v>
+        <v>173.8030854494372</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1872.090169197688</v>
+        <v>1875.629661109379</v>
       </c>
       <c r="C11" t="n">
-        <v>1503.127652257277</v>
+        <v>1506.667144168967</v>
       </c>
       <c r="D11" t="n">
-        <v>1144.861953650526</v>
+        <v>1506.667144168967</v>
       </c>
       <c r="E11" t="n">
-        <v>759.0737010522819</v>
+        <v>1120.878891570723</v>
       </c>
       <c r="F11" t="n">
-        <v>348.0877962626751</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>348.0877962626751</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592061</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706885</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656946</v>
+        <v>695.1615405656951</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087828</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484039</v>
+        <v>2455.60089048404</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535292</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.12796747999</v>
+        <v>3493.127967479991</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464055</v>
+        <v>3789.749829464056</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796031</v>
+        <v>3876.883295796032</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345372</v>
+        <v>3776.999350345373</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926736</v>
+        <v>3573.020743926737</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048264</v>
+        <v>3319.526802048266</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704694</v>
+        <v>2988.463914704695</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434579</v>
+        <v>2635.695259434581</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.2295011735</v>
+        <v>2262.229501173501</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197688</v>
+        <v>2262.229501173501</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390847</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592061</v>
+        <v>193.841091987041</v>
       </c>
       <c r="K12" t="n">
-        <v>272.7431585655912</v>
+        <v>470.7769964046651</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235422</v>
+        <v>503.2284887929966</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.39676518007</v>
+        <v>1011.185054749525</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881279</v>
+        <v>1546.994364450734</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2014.935408783257</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1071.230256530886</v>
+        <v>264.7318425453589</v>
       </c>
       <c r="C13" t="n">
-        <v>902.2940736029786</v>
+        <v>264.7318425453589</v>
       </c>
       <c r="D13" t="n">
-        <v>752.1774341906428</v>
+        <v>264.7318425453589</v>
       </c>
       <c r="E13" t="n">
-        <v>604.2643406082497</v>
+        <v>264.7318425453589</v>
       </c>
       <c r="F13" t="n">
-        <v>457.3743931103393</v>
+        <v>264.7318425453589</v>
       </c>
       <c r="G13" t="n">
-        <v>289.8764099215276</v>
+        <v>221.9335194174539</v>
       </c>
       <c r="H13" t="n">
-        <v>145.4805564199943</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648134</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344797</v>
+        <v>710.5788654344805</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818662</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276101</v>
+        <v>1949.247121276102</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710542</v>
+        <v>1728.355788710543</v>
       </c>
       <c r="U13" t="n">
-        <v>1728.355788710542</v>
+        <v>1439.264095659993</v>
       </c>
       <c r="V13" t="n">
-        <v>1473.671300504655</v>
+        <v>1184.579607454107</v>
       </c>
       <c r="W13" t="n">
-        <v>1473.671300504655</v>
+        <v>895.162437417146</v>
       </c>
       <c r="X13" t="n">
-        <v>1473.671300504655</v>
+        <v>667.1728865191286</v>
       </c>
       <c r="Y13" t="n">
-        <v>1252.878721361125</v>
+        <v>446.3803073755985</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797217</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5361,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.644273983533</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>593.6115863900025</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>443.4949469776666</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>295.5818533952735</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>148.6919058973631</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>148.6919058973631</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2090.45917461044</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1801.383947954638</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1546.699459748751</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1257.28228971179</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1029.292738813773</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,19 +5540,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>264.0500279773688</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G19" t="n">
-        <v>96.8539286922487</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5683,7 +5683,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,7 +5783,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5835,16 +5835,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910538</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631468</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D22" t="n">
-        <v>632.340100950811</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4270073684179</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F22" t="n">
-        <v>337.5370598705075</v>
+        <v>374.2836905024712</v>
       </c>
       <c r="G22" t="n">
-        <v>170.3409605853872</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121293</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,7 +5987,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622252</v>
+        <v>763.7541388327645</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343182</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219825</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395893</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832662</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.84215317686</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970973</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934012</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035995</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892465</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>808.8888553856868</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>639.95267245778</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925215</v>
+        <v>639.95267245778</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851784</v>
+        <v>492.0395788753868</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>345.1496313774765</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.9535320923565</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>990.5373202159266</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836016</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>734.6461798836016</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>584.5295404712658</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>436.6164468888727</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>289.7264993909623</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>122.5304001058426</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138413</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290462</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C37" t="n">
-        <v>699.7311804011393</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2399.398437064522</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2216.543602719426</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1996.942137742368</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159286</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,16 +7196,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.644273983533</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7366,16 +7366,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1585.843574062041</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1296.426404025081</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1068.436853127063</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>847.644273983533</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,46 +7415,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856876</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C43" t="n">
-        <v>639.9526724577807</v>
+        <v>889.0190760550121</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133953</v>
+        <v>738.9024366426763</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310022</v>
+        <v>590.9893430602832</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>276.9032962772528</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396418</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359457</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159273</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7673,22 +7673,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536376</v>
+        <v>923.4916164683276</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257307</v>
+        <v>754.5554335404207</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133951</v>
+        <v>604.438794128085</v>
       </c>
       <c r="E46" t="n">
-        <v>407.902709831002</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159273</v>
+        <v>923.4916164683276</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>240.8900576307836</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>246.6698164773692</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>246.8450950403531</v>
@@ -7994,7 +7994,7 @@
         <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>251.8689757786171</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>163.7881088975641</v>
+        <v>162.4167993026568</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
         <v>163.5316528316735</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>157.0905890158553</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8219,22 +8219,22 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>237.3382646615596</v>
+        <v>244.1059827132785</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7727963709657</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
-        <v>249.4684271639326</v>
+        <v>247.9136367056385</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,19 +8298,19 @@
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>159.1247332407705</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>150.2310236677773</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>156.5161935423116</v>
+        <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
         <v>168.8471891366353</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>58.41141249471966</v>
       </c>
       <c r="Q8" t="n">
-        <v>58.41141249471079</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>17.44229096378265</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>146.0575750188457</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.38582168926135</v>
+        <v>103.7946523314859</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>98.56196463794356</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>22.13287429608796</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184575</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>123.4526634602977</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.99006230024082</v>
+        <v>90.25352389927379</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905248</v>
+        <v>79.81330679905246</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.9682224253265</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.4928664488105</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.35543909864914</v>
       </c>
       <c r="H19" t="n">
-        <v>137.2878198583898</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>109.422330277104</v>
       </c>
       <c r="H22" t="n">
-        <v>64.5356582841827</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>101.6825818796763</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,13 +24649,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>45.84813034729916</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>56.99921249228314</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>111.8681131589319</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.28624665954029</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.8640922513193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>84.24553961896822</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.31997266427082</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>40.30478226780131</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.31997266427099</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>28.00274033431552</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856546</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1003203.632315454</v>
+        <v>1003203.632315455</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081552</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>975895.2472081553</v>
+        <v>975895.2472081555</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081556</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081556</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
         <v>402924.0843509175</v>
@@ -26326,10 +26326,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="H2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
@@ -26338,7 +26338,7 @@
         <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
@@ -26347,10 +26347,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295033</v>
@@ -26369,13 +26369,13 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>491512.595430629</v>
+        <v>491512.5954306262</v>
       </c>
       <c r="E3" t="n">
-        <v>753160.7363854385</v>
+        <v>753160.7363854414</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704302</v>
+        <v>189308.26877043</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491171</v>
+        <v>1168.747045491229</v>
       </c>
       <c r="L3" t="n">
-        <v>49278.98359503916</v>
+        <v>49278.98359503883</v>
       </c>
       <c r="M3" t="n">
-        <v>183421.9197465329</v>
+        <v>183421.9197465333</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202397</v>
+        <v>49839.57413202402</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>266424.9736266683</v>
+        <v>266424.9736266691</v>
       </c>
       <c r="E4" t="n">
-        <v>8011.893867085434</v>
+        <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26439,25 +26439,25 @@
         <v>8117.312426731987</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731983</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731984</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426732006</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8117.312426731999</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426732002</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426732015</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>59540.85891117623</v>
+        <v>59540.8589111761</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738557</v>
+        <v>85137.48506738558</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18430.7383134941</v>
+        <v>-18430.73831349386</v>
       </c>
       <c r="C6" t="n">
         <v>5383.392145616301</v>
       </c>
       <c r="D6" t="n">
-        <v>-365905.4545431177</v>
+        <v>-365905.4545431157</v>
       </c>
       <c r="E6" t="n">
-        <v>-443386.0309689919</v>
+        <v>-443607.1622829697</v>
       </c>
       <c r="F6" t="n">
-        <v>145382.5188084341</v>
+        <v>145347.7808829985</v>
       </c>
       <c r="G6" t="n">
-        <v>334690.7875788643</v>
+        <v>334656.0496534288</v>
       </c>
       <c r="H6" t="n">
-        <v>334690.7875788644</v>
+        <v>334656.0496534286</v>
       </c>
       <c r="I6" t="n">
-        <v>334690.7875788643</v>
+        <v>334656.0496534285</v>
       </c>
       <c r="J6" t="n">
-        <v>325810.6131195287</v>
+        <v>325775.875194093</v>
       </c>
       <c r="K6" t="n">
-        <v>333522.0405333731</v>
+        <v>333487.3026079374</v>
       </c>
       <c r="L6" t="n">
-        <v>285411.8039838251</v>
+        <v>285377.0660583897</v>
       </c>
       <c r="M6" t="n">
-        <v>151268.8678323314</v>
+        <v>151234.1299068953</v>
       </c>
       <c r="N6" t="n">
-        <v>284851.2134468402</v>
+        <v>284816.4755214046</v>
       </c>
       <c r="O6" t="n">
-        <v>334690.7875788641</v>
+        <v>334656.0496534287</v>
       </c>
       <c r="P6" t="n">
-        <v>334690.7875788641</v>
+        <v>334656.0496534285</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>538.3178861011887</v>
+        <v>538.3178861011859</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>233.1896216146434</v>
+        <v>233.1896216146423</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490077</v>
+        <v>969.2208239490079</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>503.2966253820634</v>
+        <v>503.2966253820605</v>
       </c>
       <c r="E3" t="n">
-        <v>663.9233511137605</v>
+        <v>663.9233511137638</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267245</v>
+        <v>165.7342631267243</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>194.7085577718653</v>
+        <v>194.7085577718642</v>
       </c>
       <c r="E4" t="n">
-        <v>736.0312023343643</v>
+        <v>736.0312023343656</v>
       </c>
       <c r="F4" t="n">
         <v>203.4874641506407</v>
@@ -27036,16 +27036,16 @@
         <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822739</v>
+        <v>4.541151368822966</v>
       </c>
       <c r="L4" t="n">
-        <v>194.7085577718653</v>
+        <v>194.708557771864</v>
       </c>
       <c r="M4" t="n">
-        <v>736.0312023343643</v>
+        <v>736.0312023343656</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506407</v>
+        <v>203.4874641506409</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>194.7085577718653</v>
+        <v>194.7085577718642</v>
       </c>
       <c r="M4" t="n">
-        <v>736.0312023343643</v>
+        <v>736.0312023343656</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506407</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.0788708875038</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>381.270308929876</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.1176902905148</v>
+        <v>136.2495950029532</v>
       </c>
       <c r="S2" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>217.3983391449769</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>293.8123459961796</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>335.7911882045137</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>132.593271175912</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
-        <v>123.7051679814456</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>77.81746130333066</v>
       </c>
       <c r="I3" t="n">
-        <v>53.75242741433431</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>196.0438505631574</v>
       </c>
       <c r="V3" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.7884208702445</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.892067707982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>137.352546191568</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>112.4940501726138</v>
       </c>
       <c r="F4" t="n">
         <v>111.4811355489759</v>
@@ -27552,7 +27552,7 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>127.9182913733583</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.74710999203387</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.1383779637511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>326.7918279282295</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.9819247089925</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.5442178425012</v>
+        <v>129.1691549215913</v>
       </c>
       <c r="S5" t="n">
-        <v>167.3307766836197</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27673,13 +27673,13 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>289.2711946273568</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>331.2500368356909</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27743,7 +27743,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>136.3898515886142</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27755,13 +27755,13 @@
         <v>194.3195233066472</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>213.2139193181415</v>
       </c>
       <c r="X6" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>171.7885747445854</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>128.7657572558497</v>
       </c>
       <c r="D7" t="n">
-        <v>129.6536026312054</v>
+        <v>110.1344091754343</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>123.1846202550991</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.39276904032837</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27828,7 +27828,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>252.4214636096028</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>187.2285915462591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>132.0832701563642</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>173.6864241270691</v>
       </c>
       <c r="G8" t="n">
-        <v>179.9490238960648</v>
+        <v>179.9490238960659</v>
       </c>
       <c r="H8" t="n">
-        <v>317.3117948754303</v>
+        <v>317.3117948754304</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0447325697382</v>
+        <v>81.35713688692977</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>13.92897356806981</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>251.1725255474823</v>
       </c>
       <c r="V8" t="n">
-        <v>302.8696820971051</v>
+        <v>94.5626368554926</v>
       </c>
       <c r="W8" t="n">
-        <v>116.0513471027696</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>123.9025352579638</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,7 +27947,7 @@
         <v>136.1856258610307</v>
       </c>
       <c r="H9" t="n">
-        <v>101.0526519233378</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.26700400501643</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>150.1758480129083</v>
+        <v>150.1758480129084</v>
       </c>
       <c r="T9" t="n">
         <v>195.4976141917368</v>
@@ -27989,13 +27989,13 @@
         <v>225.8652050216209</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>40.5196061852042</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>80.03097824339196</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.0202421868009</v>
       </c>
       <c r="H10" t="n">
-        <v>153.5964365630631</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>126.2577607104923</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.72806208046094</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.876042450415326</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>59.76360154281352</v>
       </c>
       <c r="S10" t="n">
-        <v>207.099296599989</v>
+        <v>207.0992965999891</v>
       </c>
       <c r="T10" t="n">
         <v>223.7978942402887</v>
@@ -28068,16 +28068,16 @@
         <v>286.2660800562186</v>
       </c>
       <c r="V10" t="n">
-        <v>18.94802170918462</v>
+        <v>18.9480217091857</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.164092004426888</v>
+        <v>2.164092004426876</v>
       </c>
       <c r="H8" t="n">
-        <v>22.16300724033687</v>
+        <v>22.16300724033675</v>
       </c>
       <c r="I8" t="n">
-        <v>83.43115700066767</v>
+        <v>83.43115700066723</v>
       </c>
       <c r="J8" t="n">
-        <v>183.6746037607267</v>
+        <v>183.6746037607257</v>
       </c>
       <c r="K8" t="n">
-        <v>275.2806183081169</v>
+        <v>275.2806183081155</v>
       </c>
       <c r="L8" t="n">
-        <v>341.5099489885964</v>
+        <v>341.5099489885945</v>
       </c>
       <c r="M8" t="n">
-        <v>379.995620172323</v>
+        <v>379.995620172321</v>
       </c>
       <c r="N8" t="n">
-        <v>386.144346579901</v>
+        <v>386.1443465798989</v>
       </c>
       <c r="O8" t="n">
-        <v>364.6251567108811</v>
+        <v>364.6251567108791</v>
       </c>
       <c r="P8" t="n">
-        <v>311.1991353515922</v>
+        <v>311.1991353515906</v>
       </c>
       <c r="Q8" t="n">
-        <v>233.6975904430542</v>
+        <v>233.697590443053</v>
       </c>
       <c r="R8" t="n">
-        <v>135.9401443730806</v>
+        <v>135.9401443730799</v>
       </c>
       <c r="S8" t="n">
-        <v>49.31424655087775</v>
+        <v>49.31424655087749</v>
       </c>
       <c r="T8" t="n">
-        <v>9.473312749378705</v>
+        <v>9.473312749378655</v>
       </c>
       <c r="U8" t="n">
-        <v>0.173127360354151</v>
+        <v>0.1731273603541501</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.157891302179915</v>
+        <v>1.157891302179909</v>
       </c>
       <c r="H9" t="n">
-        <v>11.18279231315866</v>
+        <v>11.1827923131586</v>
       </c>
       <c r="I9" t="n">
-        <v>39.86599439522955</v>
+        <v>39.86599439522934</v>
       </c>
       <c r="J9" t="n">
-        <v>109.395335702884</v>
+        <v>109.3953357028835</v>
       </c>
       <c r="K9" t="n">
-        <v>186.9740529489384</v>
+        <v>186.9740529489374</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4096882211259</v>
+        <v>251.4096882211246</v>
       </c>
       <c r="M9" t="n">
-        <v>293.3832479251478</v>
+        <v>293.3832479251463</v>
       </c>
       <c r="N9" t="n">
-        <v>301.1482295086263</v>
+        <v>301.1482295086248</v>
       </c>
       <c r="O9" t="n">
-        <v>275.4917959182187</v>
+        <v>275.4917959182173</v>
       </c>
       <c r="P9" t="n">
-        <v>221.1064540101279</v>
+        <v>221.1064540101267</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.8038090291415</v>
+        <v>147.8038090291407</v>
       </c>
       <c r="R9" t="n">
-        <v>71.8908301476267</v>
+        <v>71.89083014762632</v>
       </c>
       <c r="S9" t="n">
-        <v>21.50732309092955</v>
+        <v>21.50732309092944</v>
       </c>
       <c r="T9" t="n">
-        <v>4.667114503084832</v>
+        <v>4.667114503084808</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07617705935394184</v>
+        <v>0.07617705935394144</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9707371716578812</v>
+        <v>0.9707371716578761</v>
       </c>
       <c r="H10" t="n">
-        <v>8.630735944376442</v>
+        <v>8.630735944376395</v>
       </c>
       <c r="I10" t="n">
-        <v>29.19271421676611</v>
+        <v>29.19271421676595</v>
       </c>
       <c r="J10" t="n">
-        <v>68.6311180362122</v>
+        <v>68.63111803621183</v>
       </c>
       <c r="K10" t="n">
-        <v>112.7820095798884</v>
+        <v>112.7820095798878</v>
       </c>
       <c r="L10" t="n">
-        <v>144.3221427753908</v>
+        <v>144.3221427753901</v>
       </c>
       <c r="M10" t="n">
-        <v>152.1674640990622</v>
+        <v>152.1674640990614</v>
       </c>
       <c r="N10" t="n">
-        <v>148.549261913792</v>
+        <v>148.5492619137913</v>
       </c>
       <c r="O10" t="n">
-        <v>137.2092867721522</v>
+        <v>137.2092867721515</v>
       </c>
       <c r="P10" t="n">
-        <v>117.4062484703313</v>
+        <v>117.4062484703307</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.2860008012795</v>
+        <v>81.28600080127906</v>
       </c>
       <c r="R10" t="n">
-        <v>43.64787319108981</v>
+        <v>43.64787319108958</v>
       </c>
       <c r="S10" t="n">
-        <v>16.91730143698325</v>
+        <v>16.91730143698316</v>
       </c>
       <c r="T10" t="n">
-        <v>4.147695187992764</v>
+        <v>4.147695187992742</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05294930027224812</v>
+        <v>0.05294930027224785</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869139</v>
+        <v>4.833130601869141</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639233</v>
+        <v>49.49729877639235</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285602</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203912</v>
+        <v>410.2059184203914</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797512</v>
+        <v>614.7923367975122</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544648</v>
+        <v>762.7042574544651</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954551</v>
+        <v>848.6554437954554</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180159</v>
+        <v>862.3875761180162</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956795</v>
+        <v>814.3281336956799</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620351</v>
+        <v>695.0102219620353</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825963</v>
+        <v>521.9237322825966</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149531</v>
+        <v>0.3866504481495312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58595284985857</v>
+        <v>2.585952849858571</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837093</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469202</v>
+        <v>89.03390294469204</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>335.0187042770566</v>
+        <v>417.5746757598378</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747742</v>
+        <v>171.3336650206131</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821473</v>
+        <v>655.2214742821475</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340498</v>
+        <v>672.5632370340501</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924467</v>
+        <v>615.263965992447</v>
       </c>
       <c r="P12" t="n">
-        <v>493.803575338344</v>
+        <v>493.8035753383442</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627648</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868432</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535154</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092166</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798447</v>
+        <v>65.1969510279845</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100538</v>
+        <v>322.3189048100539</v>
       </c>
       <c r="M13" t="n">
-        <v>339.840092677006</v>
+        <v>339.8400926770061</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531025</v>
+        <v>331.7594548531026</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194573</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.480084578117</v>
+        <v>97.48008457811703</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493535</v>
+        <v>37.78190904493537</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377474</v>
+        <v>9.263170188377478</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473722</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,10 +32555,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>744.5154887882966</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,28 +34208,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="L2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>33.93991247395533</v>
@@ -34714,7 +34714,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="L3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="O3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
-        <v>31.71334579105918</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="P5" t="n">
-        <v>38.48106384277808</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>36.92627338448403</v>
       </c>
       <c r="Q6" t="n">
         <v>38.48106384277808</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>171.7253144061142</v>
+        <v>171.7253144061132</v>
       </c>
       <c r="K8" t="n">
-        <v>55.19076726313637</v>
+        <v>55.19076726313494</v>
       </c>
       <c r="L8" t="n">
-        <v>105.7435340186091</v>
+        <v>105.7435340186073</v>
       </c>
       <c r="M8" t="n">
-        <v>149.6493869450503</v>
+        <v>149.6493869450483</v>
       </c>
       <c r="N8" t="n">
-        <v>156.7312829833101</v>
+        <v>156.731282983308</v>
       </c>
       <c r="O8" t="n">
-        <v>134.5269452891943</v>
+        <v>134.5269452891924</v>
       </c>
       <c r="P8" t="n">
-        <v>79.96613959632271</v>
+        <v>138.3775520910407</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.80331306331553</v>
+        <v>11.39190056860352</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>108.6487443766256</v>
       </c>
       <c r="K9" t="n">
-        <v>49.13261397457939</v>
+        <v>49.13261397457839</v>
       </c>
       <c r="L9" t="n">
-        <v>112.8553084412518</v>
+        <v>112.8553084412504</v>
       </c>
       <c r="M9" t="n">
-        <v>151.2492140031295</v>
+        <v>151.249214003128</v>
       </c>
       <c r="N9" t="n">
-        <v>169.806517425293</v>
+        <v>169.8065174252914</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8955514737743</v>
+        <v>132.8955514737729</v>
       </c>
       <c r="P9" t="n">
-        <v>233.1896216146434</v>
+        <v>87.13204659579648</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.20785663238132</v>
+        <v>111.6166872746051</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>90.5125177540055</v>
+        <v>90.5125177540049</v>
       </c>
       <c r="L10" t="n">
-        <v>171.912168035707</v>
+        <v>171.9121680357062</v>
       </c>
       <c r="M10" t="n">
-        <v>191.7513410609028</v>
+        <v>191.751341060902</v>
       </c>
       <c r="N10" t="n">
-        <v>192.6814342930206</v>
+        <v>192.6814342930199</v>
       </c>
       <c r="O10" t="n">
-        <v>161.7944146861919</v>
+        <v>161.7944146861911</v>
       </c>
       <c r="P10" t="n">
-        <v>114.6848077352248</v>
+        <v>114.6848077352242</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937051</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525315</v>
+        <v>394.7024857525317</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844779</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681824</v>
+        <v>618.3092105681827</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214249</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739928</v>
+        <v>584.2299222739931</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067655</v>
+        <v>463.7772262067658</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081468</v>
+        <v>299.6180424081471</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553045</v>
+        <v>88.01360235553057</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>197.1772653026976</v>
+        <v>279.7332367854788</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949</v>
+        <v>32.77928524073892</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507166</v>
+        <v>541.2215249507168</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480023</v>
+        <v>472.6677215480025</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240138</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186262</v>
+        <v>59.91672319186267</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070196</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703699</v>
+        <v>349.90893007037</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388467</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323311</v>
+        <v>375.8916272323312</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946632</v>
+        <v>331.0186812946633</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776294</v>
+        <v>95.37638356776303</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>94.75954470991805</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>602.3814548662783</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
